--- a/realsense_sfm_WBS.xlsx
+++ b/realsense_sfm_WBS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichiro/Research/realsense/realsense_and_high_reso_cam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8976B93-0EA1-C64E-9919-BBDAF36B695F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DC88CD-F61D-0640-BC85-89D3E4913D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16280" xr2:uid="{B7962DBD-E651-1842-B5DD-F73C85133D91}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>realsense＋高性能カメラでSfM</t>
     <rPh sb="10" eb="13">
@@ -122,13 +121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pythonで動かしてみる</t>
-    <rPh sb="7" eb="8">
-      <t>ウゴカセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>周期的に画像を取得する（1秒に何回的な）</t>
     <rPh sb="0" eb="3">
       <t>シュウキテ</t>
@@ -237,13 +229,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>webカメラなのかデジカメなのかは検討</t>
-    <rPh sb="17" eb="19">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EXIFを使って時刻同期？</t>
     <rPh sb="8" eb="12">
       <t>ジコク</t>
@@ -261,6 +246,102 @@
     <t>SfMをやるのか，バンドル調整だけ組むのか</t>
     <rPh sb="17" eb="18">
       <t>クム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実験</t>
+    <rPh sb="0" eb="2">
+      <t>ジッケn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>realsenseとカメラを物理的に接着して撮影</t>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">ブツリテキニ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッチャク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サツエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラはpythonで制御して，1秒に一回撮影的な</t>
+    <rPh sb="21" eb="24">
+      <t>サツエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずは屋内で簡単に計測，時刻同期して位置姿勢を元にマッチングリストを作成</t>
+    <rPh sb="3" eb="5">
+      <t>オクナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンタn</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>位置姿勢推定は精度が甘いが，カメラの相対位置はOKなので，マッチングリストを作成できる</t>
+    <rPh sb="0" eb="4">
+      <t>イチセィ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pythonでカメラの制御をするコードを作る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>realsenseとカメラを同時に動かしてみる</t>
+    <rPh sb="10" eb="13">
+      <t>カメラヲ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウゴカセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一眼カメラを用いて，pythonでカメラを制御し，自動撮影</t>
+    <rPh sb="0" eb="2">
+      <t>イチガ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ジドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -294,7 +375,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -302,18 +383,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,17 +944,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7B8710-097A-9146-A24E-CB316819A7AB}">
-  <dimension ref="B2:H20"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="135" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="69" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" customWidth="1"/>
+    <col min="8" max="8" width="77.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -655,109 +970,217 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="C6" t="s">
+    <row r="5" spans="2:8" ht="21" thickBot="1"/>
+    <row r="6" spans="2:8" ht="21" thickBot="1">
+      <c r="C6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="7" spans="2:8">
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="C8" s="3"/>
+      <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="C9" s="3"/>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
+    <row r="10" spans="2:8">
+      <c r="C10" s="3"/>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="C11" s="3"/>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
+    <row r="12" spans="2:8">
+      <c r="C12" s="3"/>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
+    <row r="13" spans="2:8" ht="21" thickBot="1">
+      <c r="C13" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="C15" s="3"/>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="2:8" ht="21" thickBot="1">
+      <c r="C16" s="4"/>
+      <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="3"/>
+      <c r="D18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="3"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="3:8" ht="21" thickBot="1">
+      <c r="C20" s="4"/>
+      <c r="D20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" t="s">
+    <row r="21" spans="3:8">
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
+    <row r="22" spans="3:8" ht="21" thickBot="1">
+      <c r="C22" s="4"/>
+      <c r="D22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="10" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
